--- a/Results.xlsx
+++ b/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180000" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198000" uniqueCount="1">
   <si>
     <t>Column</t>
   </si>
@@ -22,13 +22,5013 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10002">
+  <fonts count="11002">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -50066,7 +55066,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10002">
+  <cellXfs count="11002">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" applyFont="true" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -60069,6 +65069,1006 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="9999" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="10000" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="10001" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10002" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10003" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10004" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10005" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10006" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10007" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10008" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10009" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10010" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10011" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10012" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10013" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10014" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10015" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10016" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10017" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10018" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10019" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10020" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10021" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10022" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10023" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10024" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10025" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10026" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10027" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10028" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10029" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10030" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10031" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10032" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10033" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10034" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10035" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10036" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10037" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10038" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10039" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10040" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10041" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10042" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10043" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10044" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10045" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10046" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10047" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10048" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10049" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10050" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10051" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10052" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10053" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10054" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10055" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10056" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10057" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10058" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10059" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10060" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10061" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10062" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10063" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10064" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10065" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10066" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10067" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10068" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10069" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10070" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10071" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10072" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10073" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10074" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10075" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10076" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10077" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10078" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10079" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10080" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10081" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10082" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10083" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10084" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10085" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10086" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10087" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10088" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10089" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10090" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10091" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10092" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10093" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10094" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10095" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10096" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10097" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10098" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10099" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10100" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10101" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10102" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10103" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10104" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10105" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10106" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10107" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10108" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10109" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10110" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10111" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10112" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10113" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10114" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10115" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10116" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10117" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10118" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10119" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10120" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10121" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10122" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10123" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10124" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10125" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10126" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10127" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10128" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10129" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10130" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10131" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10132" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10133" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10134" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10135" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10136" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10137" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10138" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10139" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10140" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10141" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10142" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10143" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10144" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10145" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10146" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10147" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10148" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10149" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10150" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10151" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10152" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10153" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10154" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10155" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10156" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10157" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10158" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10159" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10160" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10161" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10162" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10163" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10164" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10165" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10166" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10167" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10168" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10169" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10170" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10171" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10172" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10173" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10174" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10175" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10176" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10177" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10178" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10179" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10180" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10181" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10182" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10183" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10184" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10185" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10186" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10187" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10188" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10189" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10190" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10191" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10192" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10193" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10194" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10195" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10196" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10197" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10198" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10199" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10200" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10201" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10202" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10203" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10204" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10205" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10206" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10207" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10208" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10209" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10210" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10211" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10212" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10213" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10214" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10215" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10216" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10217" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10218" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10219" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10220" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10221" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10222" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10223" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10224" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10225" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10226" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10227" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10228" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10229" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10230" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10231" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10232" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10233" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10234" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10235" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10236" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10237" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10238" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10239" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10240" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10241" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10242" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10243" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10244" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10245" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10246" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10247" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10248" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10249" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10250" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10251" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10252" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10253" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10254" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10255" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10256" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10257" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10258" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10259" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10260" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10261" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10262" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10263" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10264" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10265" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10266" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10267" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10268" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10269" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10270" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10271" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10272" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10273" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10274" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10275" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10276" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10277" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10278" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10279" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10280" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10281" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10282" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10283" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10284" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10285" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10286" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10287" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10288" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10289" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10290" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10291" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10292" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10293" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10294" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10295" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10296" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10297" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10298" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10299" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10300" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10301" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10302" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10303" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10304" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10305" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10306" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10307" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10308" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10309" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10310" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10311" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10312" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10313" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10314" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10315" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10316" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10317" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10318" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10319" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10320" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10321" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10322" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10323" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10324" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10325" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10326" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10327" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10328" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10329" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10330" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10331" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10332" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10333" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10334" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10335" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10336" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10337" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10338" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10339" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10340" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10341" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10342" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10343" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10344" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10345" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10346" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10347" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10348" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10349" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10350" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10351" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10352" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10353" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10354" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10355" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10356" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10357" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10358" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10359" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10360" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10361" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10362" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10363" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10364" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10365" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10366" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10367" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10368" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10369" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10370" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10371" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10372" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10373" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10374" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10375" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10376" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10377" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10378" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10379" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10380" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10381" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10382" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10383" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10384" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10385" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10386" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10387" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10388" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10389" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10390" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10391" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10392" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10393" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10394" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10395" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10396" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10397" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10398" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10399" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10400" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10401" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10402" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10403" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10404" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10405" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10406" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10407" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10408" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10409" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10410" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10411" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10412" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10413" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10414" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10415" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10416" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10417" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10418" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10419" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10420" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10421" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10422" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10423" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10424" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10425" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10426" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10427" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10428" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10429" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10430" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10431" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10432" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10433" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10434" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10435" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10436" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10437" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10438" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10439" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10440" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10441" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10442" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10443" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10444" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10445" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10446" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10447" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10448" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10449" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10450" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10451" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10452" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10453" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10454" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10455" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10456" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10457" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10458" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10459" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10460" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10461" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10462" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10463" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10464" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10465" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10466" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10467" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10468" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10469" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10470" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10471" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10472" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10473" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10474" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10475" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10476" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10477" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10478" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10479" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10480" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10481" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10482" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10483" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10484" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10485" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10486" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10487" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10488" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10489" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10490" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10491" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10492" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10493" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10494" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10495" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10496" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10497" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10498" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10499" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10500" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10501" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10502" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10503" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10504" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10505" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10506" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10507" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10508" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10509" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10510" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10511" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10512" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10513" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10514" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10515" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10516" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10517" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10518" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10519" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10520" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10521" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10522" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10523" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10524" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10525" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10526" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10527" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10528" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10529" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10530" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10531" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10532" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10533" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10534" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10535" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10536" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10537" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10538" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10539" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10540" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10541" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10542" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10543" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10544" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10545" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10546" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10547" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10548" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10549" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10550" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10551" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10552" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10553" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10554" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10555" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10556" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10557" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10558" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10559" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10560" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10561" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10562" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10563" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10564" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10565" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10566" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10567" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10568" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10569" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10570" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10571" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10572" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10573" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10574" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10575" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10576" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10577" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10578" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10579" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10580" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10581" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10582" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10583" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10584" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10585" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10586" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10587" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10588" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10589" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10590" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10591" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10592" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10593" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10594" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10595" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10596" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10597" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10598" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10599" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10600" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10601" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10602" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10603" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10604" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10605" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10606" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10607" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10608" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10609" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10610" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10611" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10612" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10613" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10614" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10615" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10616" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10617" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10618" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10619" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10620" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10621" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10622" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10623" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10624" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10625" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10626" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10627" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10628" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10629" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10630" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10631" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10632" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10633" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10634" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10635" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10636" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10637" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10638" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10639" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10640" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10641" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10642" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10643" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10644" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10645" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10646" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10647" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10648" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10649" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10650" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10651" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10652" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10653" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10654" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10655" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10656" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10657" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10658" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10659" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10660" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10661" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10662" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10663" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10664" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10665" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10666" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10667" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10668" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10669" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10670" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10671" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10672" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10673" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10674" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10675" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10676" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10677" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10678" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10679" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10680" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10681" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10682" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10683" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10684" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10685" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10686" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10687" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10688" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10689" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10690" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10691" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10692" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10693" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10694" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10695" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10696" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10697" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10698" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10699" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10700" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10701" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10702" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10703" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10704" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10705" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10706" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10707" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10708" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10709" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10710" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10711" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10712" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10713" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10714" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10715" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10716" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10717" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10718" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10719" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10720" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10721" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10722" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10723" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10724" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10725" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10726" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10727" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10728" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10729" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10730" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10731" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10732" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10733" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10734" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10735" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10736" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10737" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10738" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10739" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10740" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10741" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10742" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10743" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10744" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10745" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10746" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10747" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10748" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10749" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10750" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10751" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10752" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10753" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10754" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10755" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10756" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10757" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10758" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10759" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10760" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10761" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10762" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10763" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10764" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10765" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10766" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10767" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10768" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10769" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10770" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10771" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10772" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10773" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10774" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10775" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10776" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10777" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10778" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10779" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10780" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10781" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10782" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10783" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10784" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10785" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10786" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10787" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10788" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10789" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10790" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10791" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10792" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10793" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10794" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10795" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10796" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10797" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10798" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10799" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10800" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10801" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10802" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10803" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10804" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10805" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10806" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10807" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10808" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10809" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10810" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10811" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10812" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10813" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10814" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10815" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10816" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10817" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10818" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10819" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10820" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10821" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10822" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10823" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10824" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10825" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10826" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10827" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10828" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10829" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10830" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10831" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10832" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10833" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10834" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10835" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10836" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10837" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10838" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10839" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10840" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10841" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10842" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10843" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10844" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10845" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10846" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10847" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10848" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10849" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10850" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10851" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10852" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10853" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10854" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10855" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10856" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10857" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10858" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10859" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10860" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10861" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10862" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10863" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10864" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10865" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10866" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10867" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10868" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10869" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10870" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10871" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10872" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10873" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10874" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10875" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10876" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10877" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10878" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10879" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10880" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10881" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10882" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10883" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10884" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10885" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10886" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10887" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10888" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10889" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10890" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10891" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10892" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10893" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10894" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10895" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10896" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10897" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10898" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10899" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10900" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10901" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10902" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10903" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10904" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10905" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10906" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10907" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10908" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10909" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10910" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10911" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10912" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10913" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10914" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10915" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10916" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10917" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10918" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10919" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10920" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10921" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10922" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10923" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10924" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10925" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10926" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10927" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10928" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10929" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10930" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10931" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10932" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10933" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10934" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10935" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10936" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10937" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10938" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10939" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10940" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10941" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10942" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10943" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10944" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10945" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10946" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10947" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10948" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10949" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10950" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10951" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10952" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10953" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10954" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10955" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10956" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10957" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10958" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10959" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10960" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10961" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10962" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10963" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10964" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10965" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10966" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10967" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10968" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10969" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10970" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10971" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10972" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10973" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10974" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10975" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10976" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10977" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10978" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10979" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10980" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10981" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10982" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10983" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10984" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10985" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10986" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10987" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10988" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10989" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10990" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10991" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10992" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10993" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10994" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10995" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10996" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10997" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10998" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10999" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11000" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11001" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -60127,7 +66127,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -60163,7 +66163,7 @@
         <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -60171,7 +66171,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -60201,13 +66201,13 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -60215,7 +66215,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -60251,7 +66251,7 @@
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -60259,13 +66259,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>66.0</v>
+        <v>73.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -60277,25 +66277,25 @@
         <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="J5" t="n">
         <v>0.0</v>
       </c>
       <c r="K5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -60303,25 +66303,25 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
       </c>
       <c r="G6" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -60333,13 +66333,13 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -60347,19 +66347,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112.0</v>
+        <v>125.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -60377,13 +66377,13 @@
         <v>0.0</v>
       </c>
       <c r="K7" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>98.0</v>
+        <v>106.0</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -60391,25 +66391,25 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>123.0</v>
+        <v>134.0</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>40.0</v>
+        <v>47.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -60421,13 +66421,13 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>114.0</v>
+        <v>122.0</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -60435,19 +66435,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>166.0</v>
+        <v>175.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>50.0</v>
+        <v>58.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>36.0</v>
+        <v>42.0</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -60465,13 +66465,13 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="n">
-        <v>36.0</v>
+        <v>42.0</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>131.0</v>
+        <v>139.0</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -60485,13 +66485,13 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>56.0</v>
+        <v>63.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>34.0</v>
+        <v>41.0</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -60503,19 +66503,19 @@
         <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="J10" t="n">
         <v>0.0</v>
       </c>
       <c r="K10" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>141.0</v>
+        <v>154.0</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -60523,43 +66523,43 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>187.0</v>
+        <v>202.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>62.0</v>
+        <v>70.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>79.0</v>
+        <v>86.0</v>
       </c>
       <c r="F11" t="n">
         <v>0.0</v>
       </c>
       <c r="G11" t="n">
-        <v>52.0</v>
+        <v>57.0</v>
       </c>
       <c r="H11" t="n">
         <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>53.0</v>
+        <v>56.0</v>
       </c>
       <c r="J11" t="n">
         <v>0.0</v>
       </c>
       <c r="K11" t="n">
-        <v>165.0</v>
+        <v>180.0</v>
       </c>
       <c r="L11" t="n">
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>523.0</v>
+        <v>569.0</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -60567,43 +66567,43 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>200.0</v>
+        <v>218.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>74.0</v>
+        <v>85.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>71.0</v>
+        <v>73.0</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
       </c>
       <c r="G12" t="n">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
       <c r="H12" t="n">
         <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.0</v>
+        <v>71.0</v>
       </c>
       <c r="J12" t="n">
         <v>0.0</v>
       </c>
       <c r="K12" t="n">
-        <v>166.0</v>
+        <v>180.0</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>511.0</v>
+        <v>563.0</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -60611,43 +66611,43 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>219.0</v>
+        <v>249.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>86.0</v>
+        <v>97.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>84.0</v>
+        <v>89.0</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>81.0</v>
+        <v>90.0</v>
       </c>
       <c r="H13" t="n">
         <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>75.0</v>
+        <v>84.0</v>
       </c>
       <c r="J13" t="n">
         <v>0.0</v>
       </c>
       <c r="K13" t="n">
-        <v>190.0</v>
+        <v>224.0</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>429.0</v>
+        <v>479.0</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
@@ -60655,43 +66655,43 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252.0</v>
+        <v>273.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>106.0</v>
+        <v>120.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>94.0</v>
+        <v>110.0</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
       </c>
       <c r="G14" t="n">
-        <v>100.0</v>
+        <v>112.0</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>93.0</v>
+        <v>106.0</v>
       </c>
       <c r="J14" t="n">
         <v>0.0</v>
       </c>
       <c r="K14" t="n">
-        <v>183.0</v>
+        <v>210.0</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>510.0</v>
+        <v>562.0</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -60699,43 +66699,43 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>273.0</v>
+        <v>300.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>116.0</v>
+        <v>132.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>154.0</v>
+        <v>168.0</v>
       </c>
       <c r="F15" t="n">
         <v>0.0</v>
       </c>
       <c r="G15" t="n">
-        <v>108.0</v>
+        <v>119.0</v>
       </c>
       <c r="H15" t="n">
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>102.0</v>
+        <v>115.0</v>
       </c>
       <c r="J15" t="n">
         <v>0.0</v>
       </c>
       <c r="K15" t="n">
-        <v>237.0</v>
+        <v>260.0</v>
       </c>
       <c r="L15" t="n">
         <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>493.0</v>
+        <v>543.0</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -60743,43 +66743,43 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>266.0</v>
+        <v>289.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>141.0</v>
+        <v>158.0</v>
       </c>
       <c r="D16" t="n">
         <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.0</v>
+        <v>154.0</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
       </c>
       <c r="G16" t="n">
-        <v>120.0</v>
+        <v>138.0</v>
       </c>
       <c r="H16" t="n">
         <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>120.0</v>
+        <v>133.0</v>
       </c>
       <c r="J16" t="n">
         <v>0.0</v>
       </c>
       <c r="K16" t="n">
-        <v>274.0</v>
+        <v>304.0</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>487.0</v>
+        <v>532.0</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -60787,43 +66787,43 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>278.0</v>
+        <v>312.0</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>157.0</v>
+        <v>175.0</v>
       </c>
       <c r="D17" t="n">
         <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>157.0</v>
+        <v>176.0</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
       </c>
       <c r="G17" t="n">
-        <v>140.0</v>
+        <v>161.0</v>
       </c>
       <c r="H17" t="n">
         <v>0.0</v>
       </c>
       <c r="I17" t="n">
-        <v>152.0</v>
+        <v>167.0</v>
       </c>
       <c r="J17" t="n">
         <v>0.0</v>
       </c>
       <c r="K17" t="n">
-        <v>276.0</v>
+        <v>307.0</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>513.0</v>
+        <v>573.0</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -60837,13 +66837,13 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>201.0</v>
+        <v>219.0</v>
       </c>
       <c r="D18" t="n">
         <v>0.0</v>
       </c>
       <c r="E18" t="n">
-        <v>163.0</v>
+        <v>179.0</v>
       </c>
       <c r="F18" t="n">
         <v>0.0</v>
@@ -60855,19 +66855,19 @@
         <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>171.0</v>
+        <v>186.0</v>
       </c>
       <c r="J18" t="n">
         <v>0.0</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0</v>
+        <v>316.0</v>
       </c>
       <c r="L18" t="s">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>514.0</v>
+        <v>560.0</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -60875,43 +66875,43 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>339.0</v>
+        <v>369.0</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>197.0</v>
+        <v>216.0</v>
       </c>
       <c r="D19" t="n">
         <v>0.0</v>
       </c>
       <c r="E19" t="n">
-        <v>218.0</v>
+        <v>242.0</v>
       </c>
       <c r="F19" t="n">
         <v>0.0</v>
       </c>
       <c r="G19" t="n">
-        <v>197.0</v>
+        <v>215.0</v>
       </c>
       <c r="H19" t="n">
         <v>0.0</v>
       </c>
       <c r="I19" t="n">
-        <v>197.0</v>
+        <v>210.0</v>
       </c>
       <c r="J19" t="n">
         <v>0.0</v>
       </c>
       <c r="K19" t="n">
-        <v>275.0</v>
+        <v>297.0</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>471.0</v>
+        <v>530.0</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
@@ -60919,43 +66919,43 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>317.0</v>
+        <v>357.0</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>221.0</v>
+        <v>244.0</v>
       </c>
       <c r="D20" t="n">
         <v>0.0</v>
       </c>
       <c r="E20" t="n">
-        <v>230.0</v>
+        <v>258.0</v>
       </c>
       <c r="F20" t="n">
         <v>0.0</v>
       </c>
       <c r="G20" t="n">
-        <v>233.0</v>
+        <v>246.0</v>
       </c>
       <c r="H20" t="n">
         <v>0.0</v>
       </c>
       <c r="I20" t="n">
-        <v>187.0</v>
+        <v>202.0</v>
       </c>
       <c r="J20" t="n">
         <v>0.0</v>
       </c>
       <c r="K20" t="n">
-        <v>329.0</v>
+        <v>357.0</v>
       </c>
       <c r="L20" t="n">
         <v>0.0</v>
       </c>
       <c r="M20" t="n">
-        <v>523.0</v>
+        <v>573.0</v>
       </c>
       <c r="N20" t="n">
         <v>0.0</v>
@@ -60963,43 +66963,43 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>332.0</v>
+        <v>366.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>236.0</v>
+        <v>263.0</v>
       </c>
       <c r="D21" t="n">
         <v>0.0</v>
       </c>
       <c r="E21" t="n">
-        <v>232.0</v>
+        <v>251.0</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
       </c>
       <c r="G21" t="n">
-        <v>245.0</v>
+        <v>261.0</v>
       </c>
       <c r="H21" t="n">
         <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>200.0</v>
+        <v>210.0</v>
       </c>
       <c r="J21" t="n">
         <v>0.0</v>
       </c>
       <c r="K21" t="n">
-        <v>340.0</v>
+        <v>372.0</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
       </c>
       <c r="M21" t="n">
-        <v>489.0</v>
+        <v>545.0</v>
       </c>
       <c r="N21" t="n">
         <v>0.0</v>
@@ -61007,43 +67007,43 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>363.0</v>
+        <v>406.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>266.0</v>
+        <v>286.0</v>
       </c>
       <c r="D22" t="n">
         <v>0.0</v>
       </c>
       <c r="E22" t="n">
-        <v>234.0</v>
+        <v>258.0</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
       </c>
       <c r="G22" t="n">
-        <v>271.0</v>
+        <v>294.0</v>
       </c>
       <c r="H22" t="n">
         <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>212.0</v>
+        <v>233.0</v>
       </c>
       <c r="J22" t="n">
         <v>0.0</v>
       </c>
       <c r="K22" t="n">
-        <v>376.0</v>
+        <v>418.0</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
       </c>
       <c r="M22" t="n">
-        <v>471.0</v>
+        <v>526.0</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -61051,43 +67051,43 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>348.0</v>
+        <v>381.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>276.0</v>
+        <v>309.0</v>
       </c>
       <c r="D23" t="n">
         <v>0.0</v>
       </c>
       <c r="E23" t="n">
-        <v>279.0</v>
+        <v>299.0</v>
       </c>
       <c r="F23" t="n">
         <v>0.0</v>
       </c>
       <c r="G23" t="n">
-        <v>267.0</v>
+        <v>290.0</v>
       </c>
       <c r="H23" t="n">
         <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>271.0</v>
+        <v>292.0</v>
       </c>
       <c r="J23" t="n">
         <v>0.0</v>
       </c>
       <c r="K23" t="n">
-        <v>373.0</v>
+        <v>412.0</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
       </c>
       <c r="M23" t="n">
-        <v>468.0</v>
+        <v>522.0</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
@@ -61095,43 +67095,43 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>428.0</v>
+        <v>470.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>306.0</v>
+        <v>334.0</v>
       </c>
       <c r="D24" t="n">
         <v>0.0</v>
       </c>
       <c r="E24" t="n">
-        <v>286.0</v>
+        <v>315.0</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
       </c>
       <c r="G24" t="n">
-        <v>295.0</v>
+        <v>328.0</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>287.0</v>
+        <v>316.0</v>
       </c>
       <c r="J24" t="n">
         <v>0.0</v>
       </c>
       <c r="K24" t="n">
-        <v>335.0</v>
+        <v>384.0</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>483.0</v>
+        <v>523.0</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -61139,43 +67139,43 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>363.0</v>
+        <v>393.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>325.0</v>
+        <v>359.0</v>
       </c>
       <c r="D25" t="n">
         <v>0.0</v>
       </c>
       <c r="E25" t="n">
-        <v>305.0</v>
+        <v>335.0</v>
       </c>
       <c r="F25" t="n">
         <v>0.0</v>
       </c>
       <c r="G25" t="n">
-        <v>318.0</v>
+        <v>353.0</v>
       </c>
       <c r="H25" t="n">
         <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>276.0</v>
+        <v>313.0</v>
       </c>
       <c r="J25" t="n">
         <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>376.0</v>
+        <v>409.0</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
       </c>
       <c r="M25" t="n">
-        <v>500.0</v>
+        <v>550.0</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
@@ -61189,13 +67189,13 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>314.0</v>
+        <v>352.0</v>
       </c>
       <c r="D26" t="n">
         <v>0.0</v>
       </c>
       <c r="E26" t="n">
-        <v>316.0</v>
+        <v>354.0</v>
       </c>
       <c r="F26" t="n">
         <v>0.0</v>
@@ -61207,19 +67207,19 @@
         <v>0.0</v>
       </c>
       <c r="I26" t="n">
-        <v>325.0</v>
+        <v>349.0</v>
       </c>
       <c r="J26" t="n">
         <v>0.0</v>
       </c>
       <c r="K26" t="n">
-        <v>402.0</v>
+        <v>449.0</v>
       </c>
       <c r="L26" t="s">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>465.0</v>
+        <v>521.0</v>
       </c>
       <c r="N26" t="n">
         <v>0.0</v>
@@ -61227,43 +67227,43 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>451.0</v>
+        <v>486.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>365.0</v>
+        <v>410.0</v>
       </c>
       <c r="D27" t="n">
         <v>0.0</v>
       </c>
       <c r="E27" t="n">
-        <v>346.0</v>
+        <v>394.0</v>
       </c>
       <c r="F27" t="n">
         <v>0.0</v>
       </c>
       <c r="G27" t="n">
-        <v>363.0</v>
+        <v>403.0</v>
       </c>
       <c r="H27" t="n">
         <v>0.0</v>
       </c>
       <c r="I27" t="n">
-        <v>324.0</v>
+        <v>352.0</v>
       </c>
       <c r="J27" t="n">
         <v>0.0</v>
       </c>
       <c r="K27" t="n">
-        <v>422.0</v>
+        <v>474.0</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
       </c>
       <c r="M27" t="n">
-        <v>504.0</v>
+        <v>565.0</v>
       </c>
       <c r="N27" t="n">
         <v>0.0</v>
@@ -61271,43 +67271,43 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>437.0</v>
+        <v>476.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>363.0</v>
+        <v>394.0</v>
       </c>
       <c r="D28" t="n">
         <v>0.0</v>
       </c>
       <c r="E28" t="n">
-        <v>359.0</v>
+        <v>408.0</v>
       </c>
       <c r="F28" t="n">
         <v>0.0</v>
       </c>
       <c r="G28" t="n">
-        <v>368.0</v>
+        <v>401.0</v>
       </c>
       <c r="H28" t="n">
         <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>358.0</v>
+        <v>401.0</v>
       </c>
       <c r="J28" t="n">
         <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>439.0</v>
+        <v>479.0</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
       </c>
       <c r="M28" t="n">
-        <v>502.0</v>
+        <v>556.0</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -61315,43 +67315,43 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>440.0</v>
+        <v>483.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>391.0</v>
+        <v>431.0</v>
       </c>
       <c r="D29" t="n">
         <v>0.0</v>
       </c>
       <c r="E29" t="n">
-        <v>367.0</v>
+        <v>405.0</v>
       </c>
       <c r="F29" t="n">
         <v>0.0</v>
       </c>
       <c r="G29" t="n">
-        <v>375.0</v>
+        <v>412.0</v>
       </c>
       <c r="H29" t="n">
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>373.0</v>
+        <v>413.0</v>
       </c>
       <c r="J29" t="n">
         <v>0.0</v>
       </c>
       <c r="K29" t="n">
-        <v>402.0</v>
+        <v>447.0</v>
       </c>
       <c r="L29" t="n">
         <v>0.0</v>
       </c>
       <c r="M29" t="n">
-        <v>474.0</v>
+        <v>531.0</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
@@ -61359,43 +67359,43 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>459.0</v>
+        <v>493.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>414.0</v>
+        <v>456.0</v>
       </c>
       <c r="D30" t="n">
         <v>0.0</v>
       </c>
       <c r="E30" t="n">
-        <v>400.0</v>
+        <v>436.0</v>
       </c>
       <c r="F30" t="n">
         <v>0.0</v>
       </c>
       <c r="G30" t="n">
-        <v>399.0</v>
+        <v>434.0</v>
       </c>
       <c r="H30" t="n">
         <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>387.0</v>
+        <v>433.0</v>
       </c>
       <c r="J30" t="n">
         <v>0.0</v>
       </c>
       <c r="K30" t="n">
-        <v>469.0</v>
+        <v>512.0</v>
       </c>
       <c r="L30" t="n">
         <v>0.0</v>
       </c>
       <c r="M30" t="n">
-        <v>533.0</v>
+        <v>578.0</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
@@ -61403,43 +67403,43 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>460.0</v>
+        <v>506.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>431.0</v>
+        <v>481.0</v>
       </c>
       <c r="D31" t="n">
         <v>0.0</v>
       </c>
       <c r="E31" t="n">
-        <v>355.0</v>
+        <v>395.0</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
       </c>
       <c r="G31" t="n">
-        <v>405.0</v>
+        <v>443.0</v>
       </c>
       <c r="H31" t="n">
         <v>0.0</v>
       </c>
       <c r="I31" t="n">
-        <v>406.0</v>
+        <v>444.0</v>
       </c>
       <c r="J31" t="n">
         <v>0.0</v>
       </c>
       <c r="K31" t="n">
-        <v>413.0</v>
+        <v>454.0</v>
       </c>
       <c r="L31" t="n">
         <v>0.0</v>
       </c>
       <c r="M31" t="n">
-        <v>510.0</v>
+        <v>553.0</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
@@ -61447,43 +67447,43 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>461.0</v>
+        <v>504.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>426.0</v>
+        <v>469.0</v>
       </c>
       <c r="D32" t="n">
         <v>0.0</v>
       </c>
       <c r="E32" t="n">
-        <v>395.0</v>
+        <v>431.0</v>
       </c>
       <c r="F32" t="n">
         <v>0.0</v>
       </c>
       <c r="G32" t="n">
-        <v>391.0</v>
+        <v>429.0</v>
       </c>
       <c r="H32" t="n">
         <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>394.0</v>
+        <v>443.0</v>
       </c>
       <c r="J32" t="n">
         <v>0.0</v>
       </c>
       <c r="K32" t="n">
-        <v>464.0</v>
+        <v>508.0</v>
       </c>
       <c r="L32" t="n">
         <v>0.0</v>
       </c>
       <c r="M32" t="n">
-        <v>524.0</v>
+        <v>575.0</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
@@ -61491,43 +67491,43 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>445.0</v>
+        <v>487.0</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>401.0</v>
+        <v>444.0</v>
       </c>
       <c r="D33" t="n">
         <v>0.0</v>
       </c>
       <c r="E33" t="n">
-        <v>442.0</v>
+        <v>495.0</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
       </c>
       <c r="G33" t="n">
-        <v>399.0</v>
+        <v>445.0</v>
       </c>
       <c r="H33" t="n">
         <v>0.0</v>
       </c>
       <c r="I33" t="n">
-        <v>384.0</v>
+        <v>430.0</v>
       </c>
       <c r="J33" t="n">
         <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>476.0</v>
+        <v>510.0</v>
       </c>
       <c r="L33" t="n">
         <v>0.0</v>
       </c>
       <c r="M33" t="n">
-        <v>504.0</v>
+        <v>547.0</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
@@ -61541,13 +67541,13 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>417.0</v>
+        <v>462.0</v>
       </c>
       <c r="D34" t="n">
         <v>0.0</v>
       </c>
       <c r="E34" t="n">
-        <v>444.0</v>
+        <v>483.0</v>
       </c>
       <c r="F34" t="n">
         <v>0.0</v>
@@ -61559,19 +67559,19 @@
         <v>0.0</v>
       </c>
       <c r="I34" t="n">
-        <v>409.0</v>
+        <v>453.0</v>
       </c>
       <c r="J34" t="n">
         <v>0.0</v>
       </c>
       <c r="K34" t="n">
-        <v>466.0</v>
+        <v>517.0</v>
       </c>
       <c r="L34" t="s">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>477.0</v>
+        <v>527.0</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
@@ -61579,43 +67579,43 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>449.0</v>
+        <v>494.0</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>434.0</v>
+        <v>470.0</v>
       </c>
       <c r="D35" t="n">
         <v>0.0</v>
       </c>
       <c r="E35" t="n">
-        <v>444.0</v>
+        <v>482.0</v>
       </c>
       <c r="F35" t="n">
         <v>0.0</v>
       </c>
       <c r="G35" t="n">
-        <v>482.0</v>
+        <v>520.0</v>
       </c>
       <c r="H35" t="n">
         <v>0.0</v>
       </c>
       <c r="I35" t="n">
-        <v>432.0</v>
+        <v>472.0</v>
       </c>
       <c r="J35" t="n">
         <v>0.0</v>
       </c>
       <c r="K35" t="n">
-        <v>451.0</v>
+        <v>490.0</v>
       </c>
       <c r="L35" t="n">
         <v>0.0</v>
       </c>
       <c r="M35" t="n">
-        <v>497.0</v>
+        <v>548.0</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
@@ -61623,43 +67623,43 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>460.0</v>
+        <v>502.0</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>452.0</v>
+        <v>492.0</v>
       </c>
       <c r="D36" t="n">
         <v>0.0</v>
       </c>
       <c r="E36" t="n">
-        <v>465.0</v>
+        <v>512.0</v>
       </c>
       <c r="F36" t="n">
         <v>0.0</v>
       </c>
       <c r="G36" t="n">
-        <v>454.0</v>
+        <v>505.0</v>
       </c>
       <c r="H36" t="n">
         <v>0.0</v>
       </c>
       <c r="I36" t="n">
-        <v>449.0</v>
+        <v>501.0</v>
       </c>
       <c r="J36" t="n">
         <v>0.0</v>
       </c>
       <c r="K36" t="n">
-        <v>447.0</v>
+        <v>501.0</v>
       </c>
       <c r="L36" t="n">
         <v>0.0</v>
       </c>
       <c r="M36" t="n">
-        <v>544.0</v>
+        <v>601.0</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
@@ -61667,43 +67667,43 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>487.0</v>
+        <v>530.0</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>466.0</v>
+        <v>514.0</v>
       </c>
       <c r="D37" t="n">
         <v>0.0</v>
       </c>
       <c r="E37" t="n">
-        <v>456.0</v>
+        <v>499.0</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
       </c>
       <c r="G37" t="n">
-        <v>455.0</v>
+        <v>503.0</v>
       </c>
       <c r="H37" t="n">
         <v>0.0</v>
       </c>
       <c r="I37" t="n">
-        <v>409.0</v>
+        <v>452.0</v>
       </c>
       <c r="J37" t="n">
         <v>0.0</v>
       </c>
       <c r="K37" t="n">
-        <v>471.0</v>
+        <v>521.0</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
       </c>
       <c r="M37" t="n">
-        <v>528.0</v>
+        <v>571.0</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
@@ -61711,43 +67711,43 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>472.0</v>
+        <v>518.0</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>477.0</v>
+        <v>524.0</v>
       </c>
       <c r="D38" t="n">
         <v>0.0</v>
       </c>
       <c r="E38" t="n">
-        <v>469.0</v>
+        <v>513.0</v>
       </c>
       <c r="F38" t="n">
         <v>0.0</v>
       </c>
       <c r="G38" t="n">
-        <v>474.0</v>
+        <v>520.0</v>
       </c>
       <c r="H38" t="n">
         <v>0.0</v>
       </c>
       <c r="I38" t="n">
-        <v>454.0</v>
+        <v>502.0</v>
       </c>
       <c r="J38" t="n">
         <v>0.0</v>
       </c>
       <c r="K38" t="n">
-        <v>467.0</v>
+        <v>511.0</v>
       </c>
       <c r="L38" t="n">
         <v>0.0</v>
       </c>
       <c r="M38" t="n">
-        <v>533.0</v>
+        <v>573.0</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
@@ -61755,43 +67755,43 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>470.0</v>
+        <v>516.0</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>483.0</v>
+        <v>528.0</v>
       </c>
       <c r="D39" t="n">
         <v>0.0</v>
       </c>
       <c r="E39" t="n">
-        <v>481.0</v>
+        <v>526.0</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
       </c>
       <c r="G39" t="n">
-        <v>458.0</v>
+        <v>504.0</v>
       </c>
       <c r="H39" t="n">
         <v>0.0</v>
       </c>
       <c r="I39" t="n">
-        <v>473.0</v>
+        <v>524.0</v>
       </c>
       <c r="J39" t="n">
         <v>0.0</v>
       </c>
       <c r="K39" t="n">
-        <v>470.0</v>
+        <v>523.0</v>
       </c>
       <c r="L39" t="n">
         <v>0.0</v>
       </c>
       <c r="M39" t="n">
-        <v>519.0</v>
+        <v>578.0</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -61799,43 +67799,43 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>468.0</v>
+        <v>520.0</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>434.0</v>
+        <v>473.0</v>
       </c>
       <c r="D40" t="n">
         <v>0.0</v>
       </c>
       <c r="E40" t="n">
-        <v>511.0</v>
+        <v>553.0</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
       </c>
       <c r="G40" t="n">
-        <v>504.0</v>
+        <v>556.0</v>
       </c>
       <c r="H40" t="n">
         <v>0.0</v>
       </c>
       <c r="I40" t="n">
-        <v>501.0</v>
+        <v>547.0</v>
       </c>
       <c r="J40" t="n">
         <v>0.0</v>
       </c>
       <c r="K40" t="n">
-        <v>490.0</v>
+        <v>541.0</v>
       </c>
       <c r="L40" t="n">
         <v>0.0</v>
       </c>
       <c r="M40" t="n">
-        <v>481.0</v>
+        <v>538.0</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
@@ -61843,43 +67843,43 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>455.0</v>
+        <v>501.0</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>515.0</v>
+        <v>567.0</v>
       </c>
       <c r="D41" t="n">
         <v>0.0</v>
       </c>
       <c r="E41" t="n">
-        <v>444.0</v>
+        <v>494.0</v>
       </c>
       <c r="F41" t="n">
         <v>0.0</v>
       </c>
       <c r="G41" t="n">
-        <v>496.0</v>
+        <v>534.0</v>
       </c>
       <c r="H41" t="n">
         <v>0.0</v>
       </c>
       <c r="I41" t="n">
-        <v>439.0</v>
+        <v>480.0</v>
       </c>
       <c r="J41" t="n">
         <v>0.0</v>
       </c>
       <c r="K41" t="n">
-        <v>524.0</v>
+        <v>577.0</v>
       </c>
       <c r="L41" t="n">
         <v>0.0</v>
       </c>
       <c r="M41" t="n">
-        <v>506.0</v>
+        <v>562.0</v>
       </c>
       <c r="N41" t="n">
         <v>0.0</v>
@@ -61893,13 +67893,13 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>496.0</v>
+        <v>556.0</v>
       </c>
       <c r="D42" t="n">
         <v>0.0</v>
       </c>
       <c r="E42" t="n">
-        <v>467.0</v>
+        <v>516.0</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
@@ -61911,19 +67911,19 @@
         <v>0.0</v>
       </c>
       <c r="I42" t="n">
-        <v>463.0</v>
+        <v>503.0</v>
       </c>
       <c r="J42" t="n">
         <v>0.0</v>
       </c>
       <c r="K42" t="n">
-        <v>464.0</v>
+        <v>523.0</v>
       </c>
       <c r="L42" t="s">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>521.0</v>
+        <v>559.0</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -61931,43 +67931,43 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>511.0</v>
+        <v>575.0</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>514.0</v>
+        <v>572.0</v>
       </c>
       <c r="D43" t="n">
         <v>0.0</v>
       </c>
       <c r="E43" t="n">
-        <v>450.0</v>
+        <v>503.0</v>
       </c>
       <c r="F43" t="n">
         <v>0.0</v>
       </c>
       <c r="G43" t="n">
-        <v>525.0</v>
+        <v>573.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>486.0</v>
+        <v>532.0</v>
       </c>
       <c r="J43" t="n">
         <v>0.0</v>
       </c>
       <c r="K43" t="n">
-        <v>503.0</v>
+        <v>541.0</v>
       </c>
       <c r="L43" t="n">
         <v>0.0</v>
       </c>
       <c r="M43" t="n">
-        <v>484.0</v>
+        <v>541.0</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
@@ -61975,43 +67975,43 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>508.0</v>
+        <v>546.0</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>474.0</v>
+        <v>521.0</v>
       </c>
       <c r="D44" t="n">
         <v>0.0</v>
       </c>
       <c r="E44" t="n">
-        <v>516.0</v>
+        <v>564.0</v>
       </c>
       <c r="F44" t="n">
         <v>0.0</v>
       </c>
       <c r="G44" t="n">
-        <v>522.0</v>
+        <v>563.0</v>
       </c>
       <c r="H44" t="n">
         <v>0.0</v>
       </c>
       <c r="I44" t="n">
-        <v>463.0</v>
+        <v>516.0</v>
       </c>
       <c r="J44" t="n">
         <v>0.0</v>
       </c>
       <c r="K44" t="n">
-        <v>498.0</v>
+        <v>541.0</v>
       </c>
       <c r="L44" t="n">
         <v>0.0</v>
       </c>
       <c r="M44" t="n">
-        <v>475.0</v>
+        <v>536.0</v>
       </c>
       <c r="N44" t="n">
         <v>0.0</v>
@@ -62019,43 +68019,43 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>451.0</v>
+        <v>503.0</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>465.0</v>
+        <v>523.0</v>
       </c>
       <c r="D45" t="n">
         <v>0.0</v>
       </c>
       <c r="E45" t="n">
-        <v>469.0</v>
+        <v>509.0</v>
       </c>
       <c r="F45" t="n">
         <v>0.0</v>
       </c>
       <c r="G45" t="n">
-        <v>470.0</v>
+        <v>520.0</v>
       </c>
       <c r="H45" t="n">
         <v>0.0</v>
       </c>
       <c r="I45" t="n">
-        <v>485.0</v>
+        <v>540.0</v>
       </c>
       <c r="J45" t="n">
         <v>0.0</v>
       </c>
       <c r="K45" t="n">
-        <v>471.0</v>
+        <v>512.0</v>
       </c>
       <c r="L45" t="n">
         <v>0.0</v>
       </c>
       <c r="M45" t="n">
-        <v>502.0</v>
+        <v>540.0</v>
       </c>
       <c r="N45" t="n">
         <v>0.0</v>
@@ -62063,43 +68063,43 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>479.0</v>
+        <v>524.0</v>
       </c>
       <c r="B46" t="n">
         <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>474.0</v>
+        <v>528.0</v>
       </c>
       <c r="D46" t="n">
         <v>0.0</v>
       </c>
       <c r="E46" t="n">
-        <v>502.0</v>
+        <v>547.0</v>
       </c>
       <c r="F46" t="n">
         <v>0.0</v>
       </c>
       <c r="G46" t="n">
-        <v>493.0</v>
+        <v>541.0</v>
       </c>
       <c r="H46" t="n">
         <v>0.0</v>
       </c>
       <c r="I46" t="n">
-        <v>464.0</v>
+        <v>514.0</v>
       </c>
       <c r="J46" t="n">
         <v>0.0</v>
       </c>
       <c r="K46" t="n">
-        <v>536.0</v>
+        <v>579.0</v>
       </c>
       <c r="L46" t="n">
         <v>0.0</v>
       </c>
       <c r="M46" t="n">
-        <v>501.0</v>
+        <v>535.0</v>
       </c>
       <c r="N46" t="n">
         <v>0.0</v>
@@ -62107,43 +68107,43 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>523.0</v>
+        <v>571.0</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>494.0</v>
+        <v>538.0</v>
       </c>
       <c r="D47" t="n">
         <v>0.0</v>
       </c>
       <c r="E47" t="n">
-        <v>504.0</v>
+        <v>564.0</v>
       </c>
       <c r="F47" t="n">
         <v>0.0</v>
       </c>
       <c r="G47" t="n">
-        <v>482.0</v>
+        <v>534.0</v>
       </c>
       <c r="H47" t="n">
         <v>0.0</v>
       </c>
       <c r="I47" t="n">
-        <v>479.0</v>
+        <v>528.0</v>
       </c>
       <c r="J47" t="n">
         <v>0.0</v>
       </c>
       <c r="K47" t="n">
-        <v>497.0</v>
+        <v>538.0</v>
       </c>
       <c r="L47" t="n">
         <v>0.0</v>
       </c>
       <c r="M47" t="n">
-        <v>534.0</v>
+        <v>587.0</v>
       </c>
       <c r="N47" t="n">
         <v>0.0</v>
@@ -62151,43 +68151,43 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>493.0</v>
+        <v>548.0</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>486.0</v>
+        <v>529.0</v>
       </c>
       <c r="D48" t="n">
         <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>517.0</v>
+        <v>564.0</v>
       </c>
       <c r="F48" t="n">
         <v>0.0</v>
       </c>
       <c r="G48" t="n">
-        <v>529.0</v>
+        <v>582.0</v>
       </c>
       <c r="H48" t="n">
         <v>0.0</v>
       </c>
       <c r="I48" t="n">
-        <v>515.0</v>
+        <v>560.0</v>
       </c>
       <c r="J48" t="n">
         <v>0.0</v>
       </c>
       <c r="K48" t="n">
-        <v>480.0</v>
+        <v>527.0</v>
       </c>
       <c r="L48" t="n">
         <v>0.0</v>
       </c>
       <c r="M48" t="n">
-        <v>494.0</v>
+        <v>543.0</v>
       </c>
       <c r="N48" t="n">
         <v>0.0</v>
@@ -62195,43 +68195,43 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>497.0</v>
+        <v>550.0</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>480.0</v>
+        <v>525.0</v>
       </c>
       <c r="D49" t="n">
         <v>0.0</v>
       </c>
       <c r="E49" t="n">
-        <v>473.0</v>
+        <v>533.0</v>
       </c>
       <c r="F49" t="n">
         <v>0.0</v>
       </c>
       <c r="G49" t="n">
-        <v>489.0</v>
+        <v>544.0</v>
       </c>
       <c r="H49" t="n">
         <v>0.0</v>
       </c>
       <c r="I49" t="n">
-        <v>488.0</v>
+        <v>539.0</v>
       </c>
       <c r="J49" t="n">
         <v>0.0</v>
       </c>
       <c r="K49" t="n">
-        <v>486.0</v>
+        <v>532.0</v>
       </c>
       <c r="L49" t="n">
         <v>0.0</v>
       </c>
       <c r="M49" t="n">
-        <v>504.0</v>
+        <v>548.0</v>
       </c>
       <c r="N49" t="n">
         <v>0.0</v>
@@ -62245,13 +68245,13 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>515.0</v>
+        <v>562.0</v>
       </c>
       <c r="D50" t="n">
         <v>0.0</v>
       </c>
       <c r="E50" t="n">
-        <v>472.0</v>
+        <v>510.0</v>
       </c>
       <c r="F50" t="n">
         <v>0.0</v>
@@ -62263,19 +68263,19 @@
         <v>0.0</v>
       </c>
       <c r="I50" t="n">
-        <v>501.0</v>
+        <v>557.0</v>
       </c>
       <c r="J50" t="n">
         <v>0.0</v>
       </c>
       <c r="K50" t="n">
-        <v>516.0</v>
+        <v>556.0</v>
       </c>
       <c r="L50" t="s">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>499.0</v>
+        <v>550.0</v>
       </c>
       <c r="N50" t="n">
         <v>0.0</v>
